--- a/PCB-shield/REV2-BOM.xlsx
+++ b/PCB-shield/REV2-BOM.xlsx
@@ -5,27 +5,37 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marka\AOM\IoT-Bit\AoM-IoT-Bit\PCB-shiled\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marka\AOM\IoT-Bit\AoM-IoT-Bit\PCB-shield\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550664F9-79C6-402A-B987-CCE813A210C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165A1124-1287-4D89-A4F2-AFE5A87F005C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="45">
   <si>
     <t>Name/Desc</t>
   </si>
@@ -130,16 +140,47 @@
   </si>
   <si>
     <t xml:space="preserve">JST PA 2-pin Male header, TH </t>
+  </si>
+  <si>
+    <t>Resistor, TH Mount, 100 ohm</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Resistor, TH Mount, 10k ohm</t>
+  </si>
+  <si>
+    <t>Resistor, TH Mount, 1.5k ohm</t>
+  </si>
+  <si>
+    <t>Resistor, TH Mount, 3k ohm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capacitor, TH Mount, 100nF </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Total Unit Price</t>
+  </si>
+  <si>
+    <t>Num/Units</t>
+  </si>
+  <si>
+    <t>Total Haul Price</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,6 +192,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -182,40 +230,58 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
+      <top style="thin">
         <color indexed="64"/>
-      </right>
-      <top/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -495,243 +561,425 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="3"/>
-    <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
-    <col min="4" max="4" width="19.21875" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="43" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.21875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="6.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="37.5546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
+    <col min="10" max="10" width="11.77734375" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>1</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>2.08</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+      <c r="H2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="10">
+        <f>SUM(F1:F100)</f>
+        <v>5.57</v>
+      </c>
+      <c r="J2" s="2">
+        <v>4</v>
+      </c>
+      <c r="K2" s="2">
+        <f>PRODUCT(I2, J2)</f>
+        <v>22.28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>2</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>0.19</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="H3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>4336</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>1</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>0.75</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+      <c r="H4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>4</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>0.25</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+      <c r="H5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>4</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>0.16</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+      <c r="H6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>3221</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>2</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>0.95</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+      <c r="H7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>2179</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>3</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>0.19</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+      <c r="H8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>777</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>2</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>0.2</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+      <c r="H9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>779</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>1</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <v>0.2</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+      <c r="H10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <v>3347</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3">
         <v>1</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>0.6</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="H11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/PCB-shield/REV2-BOM.xlsx
+++ b/PCB-shield/REV2-BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marka\AOM\IoT-Bit\AoM-IoT-Bit\PCB-shield\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165A1124-1287-4D89-A4F2-AFE5A87F005C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B06F26-8B74-4F59-AEED-E1D0E6DCBC52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="50">
   <si>
     <t>Name/Desc</t>
   </si>
@@ -163,13 +163,28 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Total Unit Price</t>
-  </si>
-  <si>
     <t>Num/Units</t>
   </si>
   <si>
     <t>Total Haul Price</t>
+  </si>
+  <si>
+    <t>P-channel MOSFET</t>
+  </si>
+  <si>
+    <t>VP0104N3-G</t>
+  </si>
+  <si>
+    <t>Microchip Tech.</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/microchip-technology/VP0104N3-G/4902409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Price </t>
+  </si>
+  <si>
+    <t>Assembly Total Price</t>
   </si>
 </sst>
 </file>
@@ -180,7 +195,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,6 +218,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -212,21 +235,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -245,12 +259,40 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -259,9 +301,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -269,16 +324,20 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -561,425 +620,532 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="2"/>
-    <col min="2" max="2" width="43" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="43" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="2" customWidth="1"/>
     <col min="4" max="4" width="19.21875" style="2" customWidth="1"/>
     <col min="5" max="5" width="6.109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" style="9" customWidth="1"/>
-    <col min="7" max="7" width="37.5546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="11.77734375" customWidth="1"/>
-    <col min="11" max="11" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="7.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="37.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="19.33203125" style="15" customWidth="1"/>
+    <col min="11" max="11" width="11.77734375" style="15" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:12" s="13" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="H1" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="8">
+        <v>1</v>
+      </c>
+      <c r="F2" s="9">
+        <v>2.08</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="9">
+        <f>PRODUCT(E2*F2)</f>
+        <v>2.08</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="14">
+        <f>SUM(H1:H100)</f>
+        <v>9.5900000000000016</v>
+      </c>
+      <c r="K2" s="8">
+        <v>4</v>
+      </c>
+      <c r="L2" s="8">
+        <f>PRODUCT(J2, K2)</f>
+        <v>38.360000000000007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="3">
+        <f t="shared" ref="H3:H18" si="0">PRODUCT(E3*F3)</f>
+        <v>0.38</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2">
+        <v>4336</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="2">
+        <v>4</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.64</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3221</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="0"/>
+        <v>1.9</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2179</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.57000000000000006</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="2">
+        <v>777</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="2">
+        <v>779</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="2">
+        <v>3347</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="2">
+        <v>3</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3">
+      <c r="C18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="2">
         <v>1</v>
       </c>
-      <c r="F2" s="4">
-        <v>2.08</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" s="10">
-        <f>SUM(F1:F100)</f>
-        <v>5.57</v>
-      </c>
-      <c r="J2" s="2">
-        <v>4</v>
-      </c>
-      <c r="K2" s="2">
-        <f>PRODUCT(I2, J2)</f>
-        <v>22.28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="3">
-        <v>2</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0.19</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" s="6"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="3">
-        <v>4336</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="3">
-        <v>4</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" s="6"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="3">
-        <v>4</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0.16</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="3">
-        <v>3221</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0.95</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="3">
-        <v>2179</v>
-      </c>
-      <c r="E8" s="3">
-        <v>3</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0.19</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="3">
-        <v>777</v>
-      </c>
-      <c r="E9" s="3">
-        <v>2</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I9" s="6"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="3">
-        <v>779</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" s="6"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="3">
-        <v>3347</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" s="6"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="3">
-        <v>3</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I12" s="6"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I13" s="6"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I14" s="6"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I15" s="6"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I16" s="6"/>
+      <c r="F18" s="3">
+        <v>1.07</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="3">
+        <f t="shared" si="0"/>
+        <v>1.07</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/PCB-shield/REV2-BOM.xlsx
+++ b/PCB-shield/REV2-BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marka\AOM\IoT-Bit\AoM-IoT-Bit\PCB-shield\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marka\AoM\IoT-Bit\AoM-IoT-Bit\PCB-shield\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B06F26-8B74-4F59-AEED-E1D0E6DCBC52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B949DEFD-8D85-4663-A24A-64EFBF3D6506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="53">
   <si>
     <t>Name/Desc</t>
   </si>
@@ -185,6 +185,15 @@
   </si>
   <si>
     <t>Assembly Total Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1x14-pin long male headers </t>
+  </si>
+  <si>
+    <t>https://www.adafruit.com/product/392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1x3-pin long male headers </t>
   </si>
 </sst>
 </file>
@@ -311,10 +320,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -335,7 +341,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -620,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="H21" sqref="H21:H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -636,81 +645,81 @@
     <col min="6" max="6" width="7.88671875" style="3" customWidth="1"/>
     <col min="7" max="7" width="37.5546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="10.6640625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="19.33203125" style="15" customWidth="1"/>
-    <col min="11" max="11" width="11.77734375" style="15" customWidth="1"/>
+    <col min="10" max="10" width="19.33203125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="11.77734375" style="5" customWidth="1"/>
     <col min="12" max="12" width="16.6640625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="13" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10"/>
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="1:12" s="12" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="14" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <v>1</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="8">
         <v>2.08</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="8">
         <f>PRODUCT(E2*F2)</f>
         <v>2.08</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="14">
+      <c r="J2" s="13">
         <f>SUM(H1:H100)</f>
-        <v>9.5900000000000016</v>
-      </c>
-      <c r="K2" s="8">
+        <v>10.090000000000002</v>
+      </c>
+      <c r="K2" s="7">
         <v>4</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2" s="13">
         <f>PRODUCT(J2, K2)</f>
-        <v>38.360000000000007</v>
+        <v>40.360000000000007</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -733,13 +742,12 @@
         <v>8</v>
       </c>
       <c r="H3" s="3">
-        <f t="shared" ref="H3:H18" si="0">PRODUCT(E3*F3)</f>
+        <f t="shared" ref="H3:H28" si="0">PRODUCT(E3*F3)</f>
         <v>0.38</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
@@ -767,7 +775,6 @@
       <c r="I4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="6"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
@@ -795,7 +802,6 @@
       <c r="I5" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
@@ -823,7 +829,6 @@
       <c r="I6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
@@ -851,7 +856,6 @@
       <c r="I7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
@@ -879,7 +883,6 @@
       <c r="I8" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
@@ -907,7 +910,6 @@
       <c r="I9" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
@@ -935,7 +937,6 @@
       <c r="I10" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
@@ -963,7 +964,6 @@
       <c r="I11" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
@@ -990,7 +990,6 @@
       <c r="I12" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
@@ -1017,7 +1016,6 @@
       <c r="I13" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
@@ -1044,7 +1042,6 @@
       <c r="I14" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
@@ -1071,7 +1068,6 @@
       <c r="I15" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
@@ -1098,7 +1094,6 @@
       <c r="I16" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J16" s="6"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
@@ -1145,6 +1140,54 @@
       <c r="H18" s="3">
         <f t="shared" si="0"/>
         <v>1.07</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="2">
+        <v>392</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" s="3">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="2">
+        <v>392</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" s="3">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
